--- a/MillenniumHistory/MillenniumHistoryWindows/DatabaseGenerateServer/DatabaseGenerateServer/Resource/AncientBooks/Source.xlsx
+++ b/MillenniumHistory/MillenniumHistoryWindows/DatabaseGenerateServer/DatabaseGenerateServer/Resource/AncientBooks/Source.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="8844"/>
+    <workbookView windowWidth="22368" windowHeight="9444"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>@default</t>
   </si>
@@ -25,6 +25,9 @@
     <t>出处</t>
   </si>
   <si>
+    <t>排序</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -37,6 +40,9 @@
     <t>name</t>
   </si>
   <si>
+    <t>sort</t>
+  </si>
+  <si>
     <t>史海聖書</t>
   </si>
   <si>
@@ -52,10 +58,13 @@
     <t>續修四庫全書</t>
   </si>
   <si>
-    <t>百衲</t>
-  </si>
-  <si>
-    <t>武英殿</t>
+    <t>虛位于待</t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>未知</t>
   </si>
 </sst>
 </file>
@@ -1002,13 +1011,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A11"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.77777777777778" defaultRowHeight="15.6" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.77777777777778" defaultRowHeight="15.6" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="11.7777777777778" style="1"/>
     <col min="2" max="2" width="15.6666666666667" style="1" customWidth="1"/>
@@ -1020,68 +1029,92 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:2">
+    <row r="2" s="1" customFormat="1" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:2">
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:2">
+    <row r="4" s="1" customFormat="1" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="1">
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:2">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:3">
       <c r="A7" s="1">
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="1">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="1">
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="C9" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1089,15 +1122,40 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" s="1">
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="C11" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="1">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
